--- a/Swift_Experiments/strategy_1/analysis/strategy_1_analysis.xlsx
+++ b/Swift_Experiments/strategy_1/analysis/strategy_1_analysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_1/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28060" windowHeight="17060" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TTC_stampede" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,13 @@
   </sheets>
   <definedNames>
     <definedName name="Te_Executing_task_stampede" localSheetId="2">Te_stampede!$B$4:$E$7</definedName>
-    <definedName name="Te_Executing_task_stampede_gordon" localSheetId="5">Te_stampede_gordon!$B$4:$E$11</definedName>
+    <definedName name="Te_Executing_task_stampede_gordon_1" localSheetId="5">Te_stampede_gordon!$B$4:$E$7</definedName>
     <definedName name="TTC_Time_to_completion_stampede" localSheetId="0">TTC_stampede!$B$4:$E$7</definedName>
-    <definedName name="TTC_Time_to_completion_stampede_gordon" localSheetId="3">TTC_stampede_gordon!$B$4:$E$11</definedName>
+    <definedName name="TTC_Time_to_completion_stampede_gordon_1" localSheetId="3">TTC_stampede_gordon!$B$4:$E$7</definedName>
     <definedName name="Tw_Submitting_task_stampede" localSheetId="1">Tw_stampede!$B$4:$E$7</definedName>
-    <definedName name="Tw_Submitting_task_stampede_gordon" localSheetId="4">Tw_stampede_gordon!$B$4:$E$11</definedName>
+    <definedName name="Tw_Submitting_task_stampede_gordon_1" localSheetId="4">Tw_stampede_gordon!$B$4:$E$7</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -43,8 +43,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Te-Executing_task-stampede" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/Te-Executing_task-stampede.csv" tab="0" comma="1">
+  <connection id="1" name="Te-Executing_task-stampede" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/Te-Executing_task-stampede.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -54,7 +54,7 @@
     </textPr>
   </connection>
   <connection id="2" name="Te-Executing_task-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede_gordon/Te-Executing_task-stampede_gordon.csv" tab="0" comma="1">
+    <textPr fileType="mac" codePage="10000" firstRow="6" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_1/analysis/stampede_gordon/Te-Executing_task-stampede_gordon.csv" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -63,8 +63,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="TTC-Time_to_completion-stampede" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/TTC-Time_to_completion-stampede.csv" tab="0" comma="1">
+  <connection id="3" name="TTC-Time_to_completion-stampede" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/TTC-Time_to_completion-stampede.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -74,7 +74,7 @@
     </textPr>
   </connection>
   <connection id="4" name="TTC-Time_to_completion-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede_gordon/TTC-Time_to_completion-stampede_gordon.csv" tab="0" comma="1">
+    <textPr fileType="mac" codePage="10000" firstRow="6" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_1/analysis/stampede_gordon/TTC-Time_to_completion-stampede_gordon.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -83,8 +83,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="Tw-Submitting_task-stampede" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/Tw-Submitting_task-stampede.csv" tab="0" comma="1">
+  <connection id="5" name="Tw-Submitting_task-stampede" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/Tw-Submitting_task-stampede.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -94,7 +94,7 @@
     </textPr>
   </connection>
   <connection id="6" name="Tw-Submitting_task-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede_gordon/Tw-Submitting_task-stampede_gordon.csv" tab="0" comma="1">
+    <textPr fileType="mac" codePage="10000" firstRow="6" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_1/analysis/stampede_gordon/Tw-Submitting_task-stampede_gordon.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="10">
   <si>
     <t>AVG</t>
   </si>
@@ -188,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,17 +227,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -248,14 +237,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -297,56 +287,47 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Time to Completion (TTC) - Swift+Coaster</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Stampede and Gordon</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Includes: Setup, queuing, bootstrapping, stage in, execution, stage out, shutdown times</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Queuing time accounts for</a:t>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>Experiment 1 - TTC - Swift</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> the majority of the timing and of the variation.</a:t>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t> on </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>Stampede and Gordon</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -365,16 +346,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -391,10 +369,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>TTC</c:v>
+            <c:v>TTCmeasured</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -407,11 +385,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -429,16 +407,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>4381.560080732823</c:v>
+                    <c:v>12520.85245700148</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3340.062873659715</c:v>
+                    <c:v>11133.18142610937</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5121.84024458704</c:v>
+                    <c:v>17459.32985302319</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>15765.92753348408</c:v>
+                    <c:v>35739.54311403547</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -450,16 +428,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>4381.560080732823</c:v>
+                    <c:v>12520.85245700148</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3340.062873659715</c:v>
+                    <c:v>11133.18142610937</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5121.84024458704</c:v>
+                    <c:v>17459.32985302319</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>15765.92753348408</c:v>
+                    <c:v>35739.54311403547</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -503,16 +481,69 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9802.25</c:v>
+                  <c:v>18496.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7954.0</c:v>
+                  <c:v>13098.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10907.75</c:v>
+                  <c:v>18966.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43029.75</c:v>
+                  <c:v>78400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TTCideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$M$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4800.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,11 +560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2072208064"/>
-        <c:axId val="-2072394448"/>
+        <c:axId val="-2144904624"/>
+        <c:axId val="-2144921680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2072208064"/>
+        <c:axId val="-2144904624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,20 +577,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
                   <a:t>Number of Tasks</a:t>
                 </a:r>
               </a:p>
@@ -579,16 +614,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -617,22 +649,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072394448"/>
+        <c:crossAx val="-2144921680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,10 +669,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072394448"/>
+        <c:axId val="-2144921680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000.0"/>
+          <c:max val="120000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -668,27 +697,45 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
                   <a:t>Time</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
                   <a:t> (s)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -706,16 +753,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -738,24 +782,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072208064"/>
+        <c:crossAx val="-2144904624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="2000.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -765,6 +807,35 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -774,12 +845,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -823,54 +889,78 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Waiting Time (Tw) - Swift+Coaster</a:t>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t>Experiment 1</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t> -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t> Tw - Swift</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
+              <a:t> on </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:rPr>
               <a:t>Stampede and Gordon</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Includes: setup</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>, queueing , and bootstrapping times. </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Queuing time accounts for the majority of the timing and of the variation.  </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -888,16 +978,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -917,9 +1004,9 @@
             <c:v>Tw</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -930,11 +1017,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -952,16 +1039,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>4262.36272898989</c:v>
+                    <c:v>12389.03090102962</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3216.387585197761</c:v>
+                    <c:v>10902.21981601301</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4706.366143510905</c:v>
+                    <c:v>16372.31676489311</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>13493.07197892946</c:v>
+                    <c:v>31494.21464861973</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -973,16 +1060,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>4262.36272898989</c:v>
+                    <c:v>12389.03090102962</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3216.387585197761</c:v>
+                    <c:v>10902.21981601301</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4706.366143510905</c:v>
+                    <c:v>16372.31676489311</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>13493.07197892946</c:v>
+                    <c:v>31494.21464861973</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1026,16 +1113,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8392.375</c:v>
+                  <c:v>16736.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6557.25</c:v>
+                  <c:v>11440.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8573.25</c:v>
+                  <c:v>15777.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30558.0</c:v>
+                  <c:v>60593.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,11 +1139,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2093803376"/>
-        <c:axId val="-2037290816"/>
+        <c:axId val="-2141589552"/>
+        <c:axId val="-2141583520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093803376"/>
+        <c:axId val="-2141589552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,20 +1156,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
                   <a:t>Number of Tasks</a:t>
                 </a:r>
               </a:p>
@@ -1102,16 +1193,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1140,22 +1228,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2037290816"/>
+        <c:crossAx val="-2141583520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,10 +1248,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2037290816"/>
+        <c:axId val="-2141583520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000.0"/>
+          <c:max val="120000.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1191,27 +1277,45 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
                   <a:t>Time</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
                   <a:t> (s)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1229,16 +1333,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1261,22 +1362,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093803376"/>
+        <c:crossAx val="-2141589552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1288,6 +1386,35 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1297,12 +1424,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1475,16 +1597,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>138.1061638740285</c:v>
+                    <c:v>143.9962383767946</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>162.1808679486314</c:v>
+                    <c:v>451.5119046049616</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>471.2409505572949</c:v>
+                    <c:v>1266.917782125844</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2746.114144178487</c:v>
+                    <c:v>6888.781241990487</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1496,16 +1618,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>138.1061638740285</c:v>
+                    <c:v>143.9962383767946</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>162.1808679486314</c:v>
+                    <c:v>451.5119046049616</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>471.2409505572949</c:v>
+                    <c:v>1266.917782125844</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2746.114144178487</c:v>
+                    <c:v>6888.781241990487</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1549,16 +1671,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1408.75</c:v>
+                  <c:v>1759.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1395.25</c:v>
+                  <c:v>1605.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2333.375</c:v>
+                  <c:v>3188.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12470.5</c:v>
+                  <c:v>17805.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,11 +1697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2087537616"/>
-        <c:axId val="-2012380720"/>
+        <c:axId val="-2141543648"/>
+        <c:axId val="-2141537744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087537616"/>
+        <c:axId val="-2141543648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +1800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012380720"/>
+        <c:crossAx val="-2141537744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1686,7 +1808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2012380720"/>
+        <c:axId val="-2141537744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000.0"/>
@@ -1799,7 +1921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087537616"/>
+        <c:crossAx val="-2141543648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1994,7 +2116,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2189,11 +2310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2036475088"/>
-        <c:axId val="-2036907920"/>
+        <c:axId val="-2141484176"/>
+        <c:axId val="-2141478272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2036475088"/>
+        <c:axId val="-2141484176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2346,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2292,7 +2412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036907920"/>
+        <c:crossAx val="-2141478272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2300,7 +2420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036907920"/>
+        <c:axId val="-2141478272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000.0"/>
@@ -2352,7 +2472,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2413,7 +2532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036475088"/>
+        <c:crossAx val="-2141484176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2625,7 +2744,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2817,11 +2935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2089584432"/>
-        <c:axId val="-2032022512"/>
+        <c:axId val="-2141441216"/>
+        <c:axId val="-2141435312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2089584432"/>
+        <c:axId val="-2141441216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,7 +2971,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2920,7 +3037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032022512"/>
+        <c:crossAx val="-2141435312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2928,7 +3045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2032022512"/>
+        <c:axId val="-2141435312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000.0"/>
@@ -2980,7 +3097,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3041,7 +3157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089584432"/>
+        <c:crossAx val="-2141441216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3250,7 +3366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3442,11 +3557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2073719184"/>
-        <c:axId val="-2073272256"/>
+        <c:axId val="-2141397392"/>
+        <c:axId val="-2141391488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2073719184"/>
+        <c:axId val="-2141397392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3478,7 +3593,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3545,7 +3659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073272256"/>
+        <c:crossAx val="-2141391488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3553,7 +3667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073272256"/>
+        <c:axId val="-2141391488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000.0"/>
@@ -3605,7 +3719,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3666,7 +3779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073719184"/>
+        <c:crossAx val="-2141397392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7188,15 +7301,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TTC-Time_to_completion-stampede_gordon_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tw-Submitting_task-stampede_gordon_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Te-Executing_task-stampede_gordon_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7958,10 +8071,370 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1">
+        <v>256</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G1" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1">
+        <v>256</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1">
+        <v>256</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <f>AVERAGE(B4:B7)</f>
+        <v>18496.75</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:E2" si="0">AVERAGE(C4:C7)</f>
+        <v>13098</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" si="0"/>
+        <v>18966.75</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>78400</v>
+      </c>
+      <c r="G2" s="7">
+        <f>AVERAGE(G4:G7)</f>
+        <v>22.150514737407136</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" ref="H2:J2" si="1">AVERAGE(H4:H7)</f>
+        <v>30.726070584865873</v>
+      </c>
+      <c r="I2" s="7">
+        <f t="shared" si="1"/>
+        <v>18.787025518696193</v>
+      </c>
+      <c r="J2" s="7">
+        <f t="shared" si="1"/>
+        <v>7.1662792352561411</v>
+      </c>
+      <c r="K2" s="7">
+        <f>AVERAGE(G2:J2)</f>
+        <v>19.707472519056335</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1200</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1200</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1200</v>
+      </c>
+      <c r="P2" s="6">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <f>_xlfn.STDEV.S(B4:B7)</f>
+        <v>12520.85245700148</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:E3" si="2">_xlfn.STDEV.S(C4:C7)</f>
+        <v>11133.18142610937</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="2"/>
+        <v>17459.329853023188</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="2"/>
+        <v>35739.54311403547</v>
+      </c>
+      <c r="G3" s="7">
+        <f>_xlfn.STDEV.S(G4:G7)</f>
+        <v>33.746112810943224</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:J3" si="3">_xlfn.STDEV.S(H4:H7)</f>
+        <v>44.809702196543384</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" si="3"/>
+        <v>25.275771691985366</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="3"/>
+        <v>3.2917045956601072</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1650</v>
+      </c>
+      <c r="C4">
+        <v>1227</v>
+      </c>
+      <c r="D4">
+        <v>2123</v>
+      </c>
+      <c r="E4">
+        <v>41107</v>
+      </c>
+      <c r="G4" s="7">
+        <f>(M4/B4)*100</f>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:J7" si="4">(N4/C4)*100</f>
+        <v>97.799511002444987</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="4"/>
+        <v>56.52378709373528</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="4"/>
+        <v>11.676843360011677</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="M4" s="6">
+        <v>1200</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1200</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1200</v>
+      </c>
+      <c r="P4" s="6">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>29871</v>
+      </c>
+      <c r="C5">
+        <v>28128</v>
+      </c>
+      <c r="D5">
+        <v>15061</v>
+      </c>
+      <c r="E5">
+        <v>74328</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G7" si="5">(M5/B5)*100</f>
+        <v>4.017274279401426</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="4"/>
+        <v>4.2662116040955631</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="4"/>
+        <v>7.9675984330389751</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="4"/>
+        <v>6.4578624475298678</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="M5" s="6">
+        <v>1200</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1200</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1200</v>
+      </c>
+      <c r="P5" s="6">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>25824</v>
+      </c>
+      <c r="C6">
+        <v>11645</v>
+      </c>
+      <c r="D6">
+        <v>15195</v>
+      </c>
+      <c r="E6">
+        <v>127092</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="5"/>
+        <v>4.6468401486988844</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="4"/>
+        <v>10.304851867754401</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="4"/>
+        <v>7.8973346495557744</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="4"/>
+        <v>3.7767916155226136</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="M6" s="6">
+        <v>1200</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1200</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1200</v>
+      </c>
+      <c r="P6" s="6">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>16642</v>
+      </c>
+      <c r="C7">
+        <v>11392</v>
+      </c>
+      <c r="D7">
+        <v>43488</v>
+      </c>
+      <c r="E7">
+        <v>71073</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="5"/>
+        <v>7.2106717942554983</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="4"/>
+        <v>10.533707865168539</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="4"/>
+        <v>2.759381898454746</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="4"/>
+        <v>6.7536195179604075</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="M7" s="6">
+        <v>1200</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1200</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1200</v>
+      </c>
+      <c r="P7" s="6">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7990,20 +8463,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
-        <v>9802.25</v>
-      </c>
-      <c r="C2" s="6">
-        <f>AVERAGE(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))</f>
-        <v>7954</v>
-      </c>
-      <c r="D2" s="6">
-        <f>AVERAGE(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))</f>
-        <v>10907.75</v>
-      </c>
-      <c r="E2" s="6">
-        <f>AVERAGE(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))</f>
-        <v>43029.75</v>
+        <f>AVERAGE(B4:B7)</f>
+        <v>16736</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:E2" si="0">AVERAGE(C4:C7)</f>
+        <v>11440.75</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" si="0"/>
+        <v>15777.75</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>60593.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -8011,20 +8484,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f>_xlfn.STDEV.S(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))/SQRT(COUNT(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26))))</f>
-        <v>4381.5600807328228</v>
+        <f>_xlfn.STDEV.S(B4:B7)</f>
+        <v>12389.030901029615</v>
       </c>
       <c r="C3" s="2">
-        <f>_xlfn.STDEV.S(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))/SQRT(COUNT(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26))))</f>
-        <v>3340.0628736597155</v>
+        <f t="shared" ref="C3:E3" si="1">_xlfn.STDEV.S(C4:C7)</f>
+        <v>10902.219816013006</v>
       </c>
       <c r="D3" s="2">
-        <f>_xlfn.STDEV.S(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))/SQRT(COUNT(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26))))</f>
-        <v>5121.8402445870397</v>
+        <f t="shared" si="1"/>
+        <v>16372.31676489311</v>
       </c>
       <c r="E3" s="2">
-        <f>_xlfn.STDEV.S(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))/SQRT(COUNT(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26))))</f>
-        <v>15765.927533484079</v>
+        <f t="shared" si="1"/>
+        <v>31494.214648619727</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8032,16 +8505,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1119</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>8373</v>
+        <v>95</v>
       </c>
       <c r="D4">
-        <v>7972</v>
+        <v>78</v>
       </c>
       <c r="E4">
-        <v>15348</v>
+        <v>31032</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -8049,16 +8522,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1224</v>
+        <v>28033</v>
       </c>
       <c r="C5">
-        <v>1041</v>
+        <v>26326</v>
       </c>
       <c r="D5">
-        <v>1158</v>
+        <v>11292</v>
       </c>
       <c r="E5">
-        <v>5619</v>
+        <v>49461</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -8066,16 +8539,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1034</v>
+        <v>23987</v>
       </c>
       <c r="C6">
-        <v>1020</v>
+        <v>9756</v>
       </c>
       <c r="D6">
-        <v>1127</v>
+        <v>12951</v>
       </c>
       <c r="E6">
-        <v>4869</v>
+        <v>104918</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -8083,296 +8556,36 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1054</v>
+        <v>14819</v>
       </c>
       <c r="C7">
-        <v>1006</v>
+        <v>9586</v>
       </c>
       <c r="D7">
-        <v>1138</v>
+        <v>38790</v>
       </c>
       <c r="E7">
-        <v>4802</v>
+        <v>56963</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1650</v>
-      </c>
-      <c r="C8">
-        <v>1027</v>
-      </c>
-      <c r="D8">
-        <v>2123</v>
-      </c>
-      <c r="E8">
-        <v>41107</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>29871</v>
-      </c>
-      <c r="C9">
-        <v>28128</v>
-      </c>
-      <c r="D9">
-        <v>15061</v>
-      </c>
-      <c r="E9">
-        <v>74328</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>25824</v>
-      </c>
-      <c r="C10">
-        <v>11645</v>
-      </c>
-      <c r="D10">
-        <v>15195</v>
-      </c>
-      <c r="E10">
-        <v>127092</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B11">
-        <v>16642</v>
-      </c>
-      <c r="C11">
-        <v>11392</v>
-      </c>
-      <c r="D11">
-        <v>43488</v>
-      </c>
-      <c r="E11">
-        <v>71073</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="4" width="6.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1">
-        <v>256</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
-        <v>8392.375</v>
-      </c>
-      <c r="C2" s="6">
-        <f>AVERAGE(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))</f>
-        <v>6557.25</v>
-      </c>
-      <c r="D2" s="6">
-        <f>AVERAGE(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))</f>
-        <v>8573.25</v>
-      </c>
-      <c r="E2" s="6">
-        <f>AVERAGE(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))</f>
-        <v>30558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <f>_xlfn.STDEV.S(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))/SQRT(COUNT(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26))))</f>
-        <v>4262.3627289898895</v>
-      </c>
-      <c r="C3" s="2">
-        <f>_xlfn.STDEV.S(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))/SQRT(COUNT(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26))))</f>
-        <v>3216.3875851977609</v>
-      </c>
-      <c r="D3" s="2">
-        <f>_xlfn.STDEV.S(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))/SQRT(COUNT(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26))))</f>
-        <v>4706.3661435109052</v>
-      </c>
-      <c r="E3" s="2">
-        <f>_xlfn.STDEV.S(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))/SQRT(COUNT(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26))))</f>
-        <v>13493.071978929462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>59</v>
-      </c>
-      <c r="C4">
-        <v>6570</v>
-      </c>
-      <c r="D4">
-        <v>5337</v>
-      </c>
-      <c r="E4">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>54</v>
-      </c>
-      <c r="D5">
-        <v>52</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
-      </c>
-      <c r="D6">
-        <v>59</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>105</v>
-      </c>
-      <c r="C8">
-        <v>95</v>
-      </c>
-      <c r="D8">
-        <v>78</v>
-      </c>
-      <c r="E8">
-        <v>31032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>28033</v>
-      </c>
-      <c r="C9">
-        <v>26326</v>
-      </c>
-      <c r="D9">
-        <v>11292</v>
-      </c>
-      <c r="E9">
-        <v>49461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>23987</v>
-      </c>
-      <c r="C10">
-        <v>9756</v>
-      </c>
-      <c r="D10">
-        <v>12951</v>
-      </c>
-      <c r="E10">
-        <v>104918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>14819</v>
-      </c>
-      <c r="C11">
-        <v>9586</v>
-      </c>
-      <c r="D11">
-        <v>38790</v>
-      </c>
-      <c r="E11">
-        <v>56963</v>
       </c>
     </row>
   </sheetData>
@@ -8385,7 +8598,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8414,20 +8627,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
-        <v>1408.75</v>
-      </c>
-      <c r="C2" s="6">
-        <f>AVERAGE(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))</f>
-        <v>1395.25</v>
-      </c>
-      <c r="D2" s="6">
-        <f>AVERAGE(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))</f>
-        <v>2333.375</v>
-      </c>
-      <c r="E2" s="6">
-        <f>AVERAGE(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))</f>
-        <v>12470.5</v>
+        <f>AVERAGE(B4:B7)</f>
+        <v>1759.75</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:E2" si="0">AVERAGE(C4:C7)</f>
+        <v>1605.5</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" si="0"/>
+        <v>3188</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>17805.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -8435,20 +8648,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f>_xlfn.STDEV.S(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))/SQRT(COUNT(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26))))</f>
-        <v>138.10616387402845</v>
+        <f>_xlfn.STDEV.S(B4:B7)</f>
+        <v>143.99623837679465</v>
       </c>
       <c r="C3" s="2">
-        <f>_xlfn.STDEV.S(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))/SQRT(COUNT(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26))))</f>
-        <v>162.1808679486314</v>
+        <f t="shared" ref="C3:E3" si="1">_xlfn.STDEV.S(C4:C7)</f>
+        <v>451.51190460496167</v>
       </c>
       <c r="D3" s="2">
-        <f>_xlfn.STDEV.S(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))/SQRT(COUNT(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26))))</f>
-        <v>471.24095055729487</v>
+        <f t="shared" si="1"/>
+        <v>1266.9177821258436</v>
       </c>
       <c r="E3" s="2">
-        <f>_xlfn.STDEV.S(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))/SQRT(COUNT(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26))))</f>
-        <v>2746.1141441784866</v>
+        <f t="shared" si="1"/>
+        <v>6888.7812419904876</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8456,16 +8669,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1058</v>
+        <v>1544</v>
       </c>
       <c r="C4">
-        <v>1802</v>
+        <v>931</v>
       </c>
       <c r="D4">
-        <v>2633</v>
+        <v>2044</v>
       </c>
       <c r="E4">
-        <v>13370</v>
+        <v>10074</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -8473,16 +8686,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1172</v>
+        <v>1837</v>
       </c>
       <c r="C5">
-        <v>985</v>
+        <v>1801</v>
       </c>
       <c r="D5">
-        <v>1105</v>
+        <v>3768</v>
       </c>
       <c r="E5">
-        <v>5582</v>
+        <v>24866</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -8490,16 +8703,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>982</v>
+        <v>1836</v>
       </c>
       <c r="C6">
-        <v>983</v>
+        <v>1888</v>
       </c>
       <c r="D6">
-        <v>1067</v>
+        <v>2243</v>
       </c>
       <c r="E6">
-        <v>4827</v>
+        <v>22173</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -8507,84 +8720,36 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1019</v>
+        <v>1822</v>
       </c>
       <c r="C7">
-        <v>970</v>
+        <v>1802</v>
       </c>
       <c r="D7">
-        <v>1110</v>
+        <v>4697</v>
       </c>
       <c r="E7">
-        <v>4763</v>
+        <v>14109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1544</v>
-      </c>
-      <c r="C8">
-        <v>931</v>
-      </c>
-      <c r="D8">
-        <v>2044</v>
-      </c>
-      <c r="E8">
-        <v>10074</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1837</v>
-      </c>
-      <c r="C9">
-        <v>1801</v>
-      </c>
-      <c r="D9">
-        <v>3768</v>
-      </c>
-      <c r="E9">
-        <v>24866</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1836</v>
-      </c>
-      <c r="C10">
-        <v>1888</v>
-      </c>
-      <c r="D10">
-        <v>2243</v>
-      </c>
-      <c r="E10">
-        <v>22173</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1822</v>
-      </c>
-      <c r="C11">
-        <v>1802</v>
-      </c>
-      <c r="D11">
-        <v>4697</v>
-      </c>
-      <c r="E11">
-        <v>14109</v>
       </c>
     </row>
   </sheetData>
@@ -8596,8 +8761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A51" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Swift_Experiments/strategy_1/analysis/strategy_1_analysis.xlsx
+++ b/Swift_Experiments/strategy_1/analysis/strategy_1_analysis.xlsx
@@ -228,8 +228,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -247,13 +251,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1984,6 +1992,999 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TTCmeasured</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>TTC_stampede_gordon!$B$3:$E$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>12520.85245700148</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11133.18142610937</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17459.32985302319</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>35739.54311403547</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>TTC_stampede_gordon!$B$3:$E$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>12520.85245700148</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11133.18142610937</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17459.32985302319</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>35739.54311403547</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18496.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13098.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18966.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78400.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TTCideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TTC_stampede_gordon!$M$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2045912128"/>
+        <c:axId val="-2046738192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2045912128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2046738192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2046738192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2045912128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2000.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tw</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tw_stampede_gordon!$B$3:$E$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>12389.03090102962</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10902.21981601301</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16372.31676489311</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>31494.21464861973</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tw_stampede_gordon!$B$3:$E$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>12389.03090102962</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10902.21981601301</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16372.31676489311</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>31494.21464861973</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tw_stampede_gordon!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tw_stampede_gordon!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16736.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11440.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15777.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60593.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2023951984"/>
+        <c:axId val="1766887072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2023951984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766887072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1766887072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120000.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                    <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                    <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                  </a:rPr>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                  <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                  <a:cs typeface="NimbusRomNo9L" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="NimbusRomNo9L" charset="0"/>
+                <a:ea typeface="NimbusRomNo9L" charset="0"/>
+                <a:cs typeface="NimbusRomNo9L" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2023951984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="NimbusRomNo9L" charset="0"/>
+              <a:ea typeface="NimbusRomNo9L" charset="0"/>
+              <a:cs typeface="NimbusRomNo9L" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -2116,6 +3117,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2346,6 +3348,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2472,6 +3475,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2581,7 +3585,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2744,6 +3748,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2971,6 +3976,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3097,6 +4103,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3206,7 +4213,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4068,6 +5075,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -6584,6 +7671,1012 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7179,6 +9272,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8071,10 +10228,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:P7"/>
+      <selection activeCell="E13" sqref="E13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8424,8 +10581,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>41107</v>
+      </c>
+      <c r="F13">
+        <v>74328</v>
+      </c>
+      <c r="G13">
+        <v>127092</v>
+      </c>
+      <c r="H13">
+        <v>71073</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8761,8 +10933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A51" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Swift_Experiments/strategy_1/analysis/strategy_1_analysis.xlsx
+++ b/Swift_Experiments/strategy_1/analysis/strategy_1_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28060" windowHeight="17060" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28060" windowHeight="17060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TTC_stampede" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     </textPr>
   </connection>
   <connection id="2" name="Te-Executing_task-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="6" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_1/analysis/stampede_gordon/Te-Executing_task-stampede_gordon.csv" comma="1">
+    <textPr fileType="mac" firstRow="6" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_1/analysis/stampede_gordon/Te-Executing_task-stampede_gordon.csv" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -74,7 +74,7 @@
     </textPr>
   </connection>
   <connection id="4" name="TTC-Time_to_completion-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="6" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_1/analysis/stampede_gordon/TTC-Time_to_completion-stampede_gordon.csv" tab="0" comma="1">
+    <textPr fileType="mac" firstRow="6" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_1/analysis/stampede_gordon/TTC-Time_to_completion-stampede_gordon.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -94,7 +94,7 @@
     </textPr>
   </connection>
   <connection id="6" name="Tw-Submitting_task-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="6" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_1/analysis/stampede_gordon/Tw-Submitting_task-stampede_gordon.csv" tab="0" comma="1">
+    <textPr fileType="mac" firstRow="6" sourceFile="/Users/mturilli/Projects/RADICAL/github/aimes.swift.experiments/Swift_Experiments/strategy_1/analysis/stampede_gordon/Tw-Submitting_task-stampede_gordon.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -568,11 +568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144904624"/>
-        <c:axId val="-2144921680"/>
+        <c:axId val="-1963485648"/>
+        <c:axId val="-2019430304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144904624"/>
+        <c:axId val="-1963485648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144921680"/>
+        <c:crossAx val="-2019430304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -677,7 +677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144921680"/>
+        <c:axId val="-2019430304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120000.0"/>
@@ -802,7 +802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144904624"/>
+        <c:crossAx val="-1963485648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2000.0"/>
@@ -1147,11 +1147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141589552"/>
-        <c:axId val="-2141583520"/>
+        <c:axId val="-2021395872"/>
+        <c:axId val="-2020637200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141589552"/>
+        <c:axId val="-2021395872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,7 +1248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141583520"/>
+        <c:crossAx val="-2020637200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1256,7 +1256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141583520"/>
+        <c:axId val="-2020637200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120000.0"/>
@@ -1382,7 +1382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141589552"/>
+        <c:crossAx val="-2021395872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1705,11 +1705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141543648"/>
-        <c:axId val="-2141537744"/>
+        <c:axId val="-1990960080"/>
+        <c:axId val="-1990954192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141543648"/>
+        <c:axId val="-1990960080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,7 +1808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141537744"/>
+        <c:crossAx val="-1990954192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1816,7 +1816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141537744"/>
+        <c:axId val="-1990954192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000.0"/>
@@ -1929,7 +1929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141543648"/>
+        <c:crossAx val="-1990960080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2183,6 +2183,59 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tw</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tw_stampede_gordon!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16736.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11440.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15777.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60593.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2193,11 +2246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2045912128"/>
-        <c:axId val="-2046738192"/>
+        <c:axId val="-1971186032"/>
+        <c:axId val="-2008981264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2045912128"/>
+        <c:axId val="-1971186032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046738192"/>
+        <c:crossAx val="-2008981264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2302,7 +2355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2046738192"/>
+        <c:axId val="-2008981264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120000.0"/>
@@ -2427,7 +2480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045912128"/>
+        <c:crossAx val="-1971186032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2000.0"/>
@@ -2663,11 +2716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2023951984"/>
-        <c:axId val="1766887072"/>
+        <c:axId val="-1963263312"/>
+        <c:axId val="-2006517504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2023951984"/>
+        <c:axId val="-1963263312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,7 +2817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766887072"/>
+        <c:crossAx val="-2006517504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2772,7 +2825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1766887072"/>
+        <c:axId val="-2006517504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120000.0"/>
@@ -2898,7 +2951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2023951984"/>
+        <c:crossAx val="-1963263312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3117,7 +3170,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3312,11 +3364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141484176"/>
-        <c:axId val="-2141478272"/>
+        <c:axId val="-2037239888"/>
+        <c:axId val="-1965539456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141484176"/>
+        <c:axId val="-2037239888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3348,7 +3400,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3415,7 +3466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141478272"/>
+        <c:crossAx val="-1965539456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3423,7 +3474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141478272"/>
+        <c:axId val="-1965539456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000.0"/>
@@ -3475,7 +3526,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3536,7 +3586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141484176"/>
+        <c:crossAx val="-2037239888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3748,7 +3798,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3940,11 +3989,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141441216"/>
-        <c:axId val="-2141435312"/>
+        <c:axId val="-1965811936"/>
+        <c:axId val="-1964137888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141441216"/>
+        <c:axId val="-1965811936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3976,7 +4025,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4043,7 +4091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141435312"/>
+        <c:crossAx val="-1964137888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4051,7 +4099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141435312"/>
+        <c:axId val="-1964137888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000.0"/>
@@ -4103,7 +4151,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4164,7 +4211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141441216"/>
+        <c:crossAx val="-1965811936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4564,11 +4611,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141397392"/>
-        <c:axId val="-2141391488"/>
+        <c:axId val="-1964187488"/>
+        <c:axId val="-1964781920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141397392"/>
+        <c:axId val="-1964187488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4666,7 +4713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141391488"/>
+        <c:crossAx val="-1964781920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4674,7 +4721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141391488"/>
+        <c:axId val="-1964781920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000.0"/>
@@ -4786,7 +4833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141397392"/>
+        <c:crossAx val="-1964187488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10230,8 +10277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10933,7 +10980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>

--- a/Swift_Experiments/strategy_1/analysis/strategy_1_analysis.xlsx
+++ b/Swift_Experiments/strategy_1/analysis/strategy_1_analysis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TTC_stampede" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Te-Executing_task-stampede" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/Te-Executing_task-stampede.csv" tab="0" comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/Te-Executing_task-stampede.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -54,7 +54,7 @@
     </textPr>
   </connection>
   <connection id="2" name="Te-Executing_task-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede_gordon/Te-Executing_task-stampede_gordon.csv" tab="0" comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede_gordon/Te-Executing_task-stampede_gordon.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -64,7 +64,7 @@
     </textPr>
   </connection>
   <connection id="3" name="TTC-Time_to_completion-stampede" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/TTC-Time_to_completion-stampede.csv" tab="0" comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/TTC-Time_to_completion-stampede.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -74,7 +74,7 @@
     </textPr>
   </connection>
   <connection id="4" name="TTC-Time_to_completion-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede_gordon/TTC-Time_to_completion-stampede_gordon.csv" tab="0" comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede_gordon/TTC-Time_to_completion-stampede_gordon.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -84,7 +84,7 @@
     </textPr>
   </connection>
   <connection id="5" name="Tw-Submitting_task-stampede" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/Tw-Submitting_task-stampede.csv" tab="0" comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede/Tw-Submitting_task-stampede.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -94,7 +94,7 @@
     </textPr>
   </connection>
   <connection id="6" name="Tw-Submitting_task-stampede_gordon" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede_gordon/Tw-Submitting_task-stampede_gordon.csv" tab="0" comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/mturilli/Projects/RADICAL/github/experiments/AIMES-Swift/Swift_Experiments/strategy_1/analysis/stampede_gordon/Tw-Submitting_task-stampede_gordon.csv" tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -529,11 +529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2072208064"/>
-        <c:axId val="-2072394448"/>
+        <c:axId val="-2075867248"/>
+        <c:axId val="-2079203312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2072208064"/>
+        <c:axId val="-2075867248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072394448"/>
+        <c:crossAx val="-2079203312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072394448"/>
+        <c:axId val="-2079203312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000.0"/>
@@ -753,7 +753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072208064"/>
+        <c:crossAx val="-2075867248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1052,11 +1052,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2093803376"/>
-        <c:axId val="-2037290816"/>
+        <c:axId val="-2090094880"/>
+        <c:axId val="-2090822240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093803376"/>
+        <c:axId val="-2090094880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2037290816"/>
+        <c:crossAx val="-2090822240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,7 +1163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2037290816"/>
+        <c:axId val="-2090822240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000.0"/>
@@ -1276,7 +1276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093803376"/>
+        <c:crossAx val="-2090094880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1575,11 +1575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2087537616"/>
-        <c:axId val="-2012380720"/>
+        <c:axId val="-2077618992"/>
+        <c:axId val="-2090189712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087537616"/>
+        <c:axId val="-2077618992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +1678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012380720"/>
+        <c:crossAx val="-2090189712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1686,7 +1686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2012380720"/>
+        <c:axId val="-2090189712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000.0"/>
@@ -1799,7 +1799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087537616"/>
+        <c:crossAx val="-2077618992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1994,7 +1994,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2189,11 +2188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2036475088"/>
-        <c:axId val="-2036907920"/>
+        <c:axId val="-2075363440"/>
+        <c:axId val="-2075253248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2036475088"/>
+        <c:axId val="-2075363440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2224,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2292,7 +2290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036907920"/>
+        <c:crossAx val="-2075253248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2300,7 +2298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036907920"/>
+        <c:axId val="-2075253248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000.0"/>
@@ -2352,7 +2350,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2413,7 +2410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036475088"/>
+        <c:crossAx val="-2075363440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2625,7 +2622,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2817,11 +2813,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2089584432"/>
-        <c:axId val="-2032022512"/>
+        <c:axId val="-2089724560"/>
+        <c:axId val="-2089718672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2089584432"/>
+        <c:axId val="-2089724560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,7 +2849,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2920,7 +2915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032022512"/>
+        <c:crossAx val="-2089718672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2928,7 +2923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2032022512"/>
+        <c:axId val="-2089718672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000.0"/>
@@ -2980,7 +2975,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3041,7 +3035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089584432"/>
+        <c:crossAx val="-2089724560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3250,7 +3244,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3442,11 +3435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2073719184"/>
-        <c:axId val="-2073272256"/>
+        <c:axId val="-2088996576"/>
+        <c:axId val="-2096531248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2073719184"/>
+        <c:axId val="-2088996576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3478,7 +3471,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3545,7 +3537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073272256"/>
+        <c:crossAx val="-2096531248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3553,7 +3545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073272256"/>
+        <c:axId val="-2096531248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000.0"/>
@@ -3605,7 +3597,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3666,7 +3657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073719184"/>
+        <c:crossAx val="-2088996576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7958,10 +7949,478 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1">
+        <v>256</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
+        <v>9802.25</v>
+      </c>
+      <c r="C2" s="6">
+        <f>AVERAGE(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))</f>
+        <v>7954</v>
+      </c>
+      <c r="D2" s="6">
+        <f>AVERAGE(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))</f>
+        <v>10907.75</v>
+      </c>
+      <c r="E2" s="6">
+        <f>AVERAGE(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))</f>
+        <v>43029.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <f>_xlfn.STDEV.S(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))/SQRT(COUNT(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26))))</f>
+        <v>4381.5600807328228</v>
+      </c>
+      <c r="C3" s="2">
+        <f>_xlfn.STDEV.S(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))/SQRT(COUNT(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26))))</f>
+        <v>3340.0628736597155</v>
+      </c>
+      <c r="D3" s="2">
+        <f>_xlfn.STDEV.S(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))/SQRT(COUNT(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26))))</f>
+        <v>5121.8402445870397</v>
+      </c>
+      <c r="E3" s="2">
+        <f>_xlfn.STDEV.S(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))/SQRT(COUNT(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26))))</f>
+        <v>15765.927533484079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1119</v>
+      </c>
+      <c r="C4">
+        <v>8373</v>
+      </c>
+      <c r="D4">
+        <v>7972</v>
+      </c>
+      <c r="E4">
+        <v>15348</v>
+      </c>
+      <c r="G4">
+        <f>Tw_stampede_gordon!B4+((B1*1200)/L4)</f>
+        <v>1117</v>
+      </c>
+      <c r="H4">
+        <f>Tw_stampede_gordon!C4+((C1*1200)/M4)</f>
+        <v>8372</v>
+      </c>
+      <c r="I4">
+        <f>Tw_stampede_gordon!D4+((D1*1200)/N4)</f>
+        <v>7970</v>
+      </c>
+      <c r="J4">
+        <f>Tw_stampede_gordon!E4+((E1*1200)/O4)</f>
+        <v>15347</v>
+      </c>
+      <c r="L4">
+        <f>(B1*1200)/Te_stampede_gordon!B4</f>
+        <v>9.0737240075614363</v>
+      </c>
+      <c r="M4">
+        <f>(C1*1200)/Te_stampede_gordon!C4</f>
+        <v>21.309655937846838</v>
+      </c>
+      <c r="N4">
+        <f>(D1*1200)/Te_stampede_gordon!D4</f>
+        <v>116.67299658184581</v>
+      </c>
+      <c r="O4">
+        <f>(E1*1200)/Te_stampede_gordon!E4</f>
+        <v>183.81451009723261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1224</v>
+      </c>
+      <c r="C5">
+        <v>1041</v>
+      </c>
+      <c r="D5">
+        <v>1158</v>
+      </c>
+      <c r="E5">
+        <v>5619</v>
+      </c>
+      <c r="G5">
+        <f>Tw_stampede_gordon!B5+((B2*1200)/L5)</f>
+        <v>1223</v>
+      </c>
+      <c r="H5">
+        <f>Tw_stampede_gordon!C5+((C2*1200)/M5)</f>
+        <v>1039</v>
+      </c>
+      <c r="I5">
+        <f>Tw_stampede_gordon!D5+((D2*1200)/N5)</f>
+        <v>1157</v>
+      </c>
+      <c r="J5">
+        <f>Tw_stampede_gordon!E5+((E2*1200)/O5)</f>
+        <v>5618</v>
+      </c>
+      <c r="L5">
+        <f>(B2*1200)/Te_stampede_gordon!B5</f>
+        <v>10036.433447098976</v>
+      </c>
+      <c r="M5">
+        <f>(C2*1200)/Te_stampede_gordon!C5</f>
+        <v>9690.1522842639588</v>
+      </c>
+      <c r="N5">
+        <f>(D2*1200)/Te_stampede_gordon!D5</f>
+        <v>11845.52036199095</v>
+      </c>
+      <c r="O5">
+        <f>(E2*1200)/Te_stampede_gordon!E5</f>
+        <v>9250.3941239699034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1034</v>
+      </c>
+      <c r="C6">
+        <v>1020</v>
+      </c>
+      <c r="D6">
+        <v>1127</v>
+      </c>
+      <c r="E6">
+        <v>4869</v>
+      </c>
+      <c r="G6">
+        <f>Tw_stampede_gordon!B6+((B3*1200)/L6)</f>
+        <v>1033</v>
+      </c>
+      <c r="H6">
+        <f>Tw_stampede_gordon!C6+((C3*1200)/M6)</f>
+        <v>1019</v>
+      </c>
+      <c r="I6">
+        <f>Tw_stampede_gordon!D6+((D3*1200)/N6)</f>
+        <v>1126</v>
+      </c>
+      <c r="J6">
+        <f>Tw_stampede_gordon!E6+((E3*1200)/O6)</f>
+        <v>4867</v>
+      </c>
+      <c r="L6">
+        <f>(B3*1200)/Te_stampede_gordon!B6</f>
+        <v>5354.2485711602721</v>
+      </c>
+      <c r="M6">
+        <f>(C3*1200)/Te_stampede_gordon!C6</f>
+        <v>4077.3910970413617</v>
+      </c>
+      <c r="N6">
+        <f>(D3*1200)/Te_stampede_gordon!D6</f>
+        <v>5760.2701907258179</v>
+      </c>
+      <c r="O6">
+        <f>(E3*1200)/Te_stampede_gordon!E6</f>
+        <v>3919.4350611520395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1054</v>
+      </c>
+      <c r="C7">
+        <v>1006</v>
+      </c>
+      <c r="D7">
+        <v>1138</v>
+      </c>
+      <c r="E7">
+        <v>4802</v>
+      </c>
+      <c r="G7">
+        <f>Tw_stampede_gordon!B7+((B4*1200)/L7)</f>
+        <v>1053</v>
+      </c>
+      <c r="H7">
+        <f>Tw_stampede_gordon!C7+((C4*1200)/M7)</f>
+        <v>1005</v>
+      </c>
+      <c r="I7">
+        <f>Tw_stampede_gordon!D7+((D4*1200)/N7)</f>
+        <v>1137</v>
+      </c>
+      <c r="J7">
+        <f>Tw_stampede_gordon!E7+((E4*1200)/O7)</f>
+        <v>4800</v>
+      </c>
+      <c r="L7">
+        <f>(B4*1200)/Te_stampede_gordon!B7</f>
+        <v>1317.7625122669283</v>
+      </c>
+      <c r="M7">
+        <f>(C4*1200)/Te_stampede_gordon!C7</f>
+        <v>10358.350515463917</v>
+      </c>
+      <c r="N7">
+        <f>(D4*1200)/Te_stampede_gordon!D7</f>
+        <v>8618.3783783783783</v>
+      </c>
+      <c r="O7">
+        <f>(E4*1200)/Te_stampede_gordon!E7</f>
+        <v>3866.806634474071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1650</v>
+      </c>
+      <c r="C8">
+        <v>1027</v>
+      </c>
+      <c r="D8">
+        <v>2123</v>
+      </c>
+      <c r="E8">
+        <v>41107</v>
+      </c>
+      <c r="G8">
+        <f>Tw_stampede_gordon!B8+((B5*1200)/L8)</f>
+        <v>1649</v>
+      </c>
+      <c r="H8">
+        <f>Tw_stampede_gordon!C8+((C5*1200)/M8)</f>
+        <v>1026</v>
+      </c>
+      <c r="I8">
+        <f>Tw_stampede_gordon!D8+((D5*1200)/N8)</f>
+        <v>2122</v>
+      </c>
+      <c r="J8">
+        <f>Tw_stampede_gordon!E8+((E5*1200)/O8)</f>
+        <v>41106</v>
+      </c>
+      <c r="L8">
+        <f>(B5*1200)/Te_stampede_gordon!B8</f>
+        <v>951.29533678756479</v>
+      </c>
+      <c r="M8">
+        <f>(C5*1200)/Te_stampede_gordon!C8</f>
+        <v>1341.7830290010741</v>
+      </c>
+      <c r="N8">
+        <f>(D5*1200)/Te_stampede_gordon!D8</f>
+        <v>679.84344422700588</v>
+      </c>
+      <c r="O8">
+        <f>(E5*1200)/Te_stampede_gordon!E8</f>
+        <v>669.32698034544376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>29871</v>
+      </c>
+      <c r="C9">
+        <v>28128</v>
+      </c>
+      <c r="D9">
+        <v>15061</v>
+      </c>
+      <c r="E9">
+        <v>74328</v>
+      </c>
+      <c r="G9">
+        <f>Tw_stampede_gordon!B9+((B6*1200)/L9)</f>
+        <v>29870</v>
+      </c>
+      <c r="H9">
+        <f>Tw_stampede_gordon!C9+((C6*1200)/M9)</f>
+        <v>28127</v>
+      </c>
+      <c r="I9">
+        <f>Tw_stampede_gordon!D9+((D6*1200)/N9)</f>
+        <v>15060</v>
+      </c>
+      <c r="J9">
+        <f>Tw_stampede_gordon!E9+((E6*1200)/O9)</f>
+        <v>74327</v>
+      </c>
+      <c r="L9">
+        <f>(B6*1200)/Te_stampede_gordon!B9</f>
+        <v>675.44910179640715</v>
+      </c>
+      <c r="M9">
+        <f>(C6*1200)/Te_stampede_gordon!C9</f>
+        <v>679.62243198223211</v>
+      </c>
+      <c r="N9">
+        <f>(D6*1200)/Te_stampede_gordon!D9</f>
+        <v>358.91719745222929</v>
+      </c>
+      <c r="O9">
+        <f>(E6*1200)/Te_stampede_gordon!E9</f>
+        <v>234.97144695568247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>25824</v>
+      </c>
+      <c r="C10">
+        <v>11645</v>
+      </c>
+      <c r="D10">
+        <v>15195</v>
+      </c>
+      <c r="E10">
+        <v>127092</v>
+      </c>
+      <c r="G10">
+        <f>Tw_stampede_gordon!B10+((B7*1200)/L10)</f>
+        <v>25823</v>
+      </c>
+      <c r="H10">
+        <f>Tw_stampede_gordon!C10+((C7*1200)/M10)</f>
+        <v>11644</v>
+      </c>
+      <c r="I10">
+        <f>Tw_stampede_gordon!D10+((D7*1200)/N10)</f>
+        <v>15194</v>
+      </c>
+      <c r="J10">
+        <f>Tw_stampede_gordon!E10+((E7*1200)/O10)</f>
+        <v>127091</v>
+      </c>
+      <c r="L10">
+        <f>(B7*1200)/Te_stampede_gordon!B10</f>
+        <v>688.88888888888891</v>
+      </c>
+      <c r="M10">
+        <f>(C7*1200)/Te_stampede_gordon!C10</f>
+        <v>639.40677966101691</v>
+      </c>
+      <c r="N10">
+        <f>(D7*1200)/Te_stampede_gordon!D10</f>
+        <v>608.82746321890329</v>
+      </c>
+      <c r="O10">
+        <f>(E7*1200)/Te_stampede_gordon!E10</f>
+        <v>259.8836422676228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>16642</v>
+      </c>
+      <c r="C11">
+        <v>11392</v>
+      </c>
+      <c r="D11">
+        <v>43488</v>
+      </c>
+      <c r="E11">
+        <v>71073</v>
+      </c>
+      <c r="G11">
+        <f>Tw_stampede_gordon!B11+((B8*1200)/L11)</f>
+        <v>16641</v>
+      </c>
+      <c r="H11">
+        <f>Tw_stampede_gordon!C11+((C8*1200)/M11)</f>
+        <v>11388</v>
+      </c>
+      <c r="I11">
+        <f>Tw_stampede_gordon!D11+((D8*1200)/N11)</f>
+        <v>43487</v>
+      </c>
+      <c r="J11">
+        <f>Tw_stampede_gordon!E11+((E8*1200)/O11)</f>
+        <v>71072</v>
+      </c>
+      <c r="L11">
+        <f>(B8*1200)/Te_stampede_gordon!B11</f>
+        <v>1086.7178924259056</v>
+      </c>
+      <c r="M11">
+        <f>(C8*1200)/Te_stampede_gordon!C11</f>
+        <v>683.90677025527191</v>
+      </c>
+      <c r="N11">
+        <f>(D8*1200)/Te_stampede_gordon!D11</f>
+        <v>542.38875878220142</v>
+      </c>
+      <c r="O11">
+        <f>(E8*1200)/Te_stampede_gordon!E11</f>
+        <v>3496.2364448224539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7991,218 +8450,6 @@
       </c>
       <c r="B2" s="5">
         <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
-        <v>9802.25</v>
-      </c>
-      <c r="C2" s="6">
-        <f>AVERAGE(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))</f>
-        <v>7954</v>
-      </c>
-      <c r="D2" s="6">
-        <f>AVERAGE(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))</f>
-        <v>10907.75</v>
-      </c>
-      <c r="E2" s="6">
-        <f>AVERAGE(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))</f>
-        <v>43029.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <f>_xlfn.STDEV.S(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))/SQRT(COUNT(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26))))</f>
-        <v>4381.5600807328228</v>
-      </c>
-      <c r="C3" s="2">
-        <f>_xlfn.STDEV.S(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26)))/SQRT(COUNT(C4:INDEX(C4:C26, MATCH(9.99999999999999E+307,C4:C26))))</f>
-        <v>3340.0628736597155</v>
-      </c>
-      <c r="D3" s="2">
-        <f>_xlfn.STDEV.S(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26)))/SQRT(COUNT(D4:INDEX(D4:D26, MATCH(9.99999999999999E+307,D4:D26))))</f>
-        <v>5121.8402445870397</v>
-      </c>
-      <c r="E3" s="2">
-        <f>_xlfn.STDEV.S(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26)))/SQRT(COUNT(E4:INDEX(E4:E26, MATCH(9.99999999999999E+307,E4:E26))))</f>
-        <v>15765.927533484079</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1119</v>
-      </c>
-      <c r="C4">
-        <v>8373</v>
-      </c>
-      <c r="D4">
-        <v>7972</v>
-      </c>
-      <c r="E4">
-        <v>15348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1224</v>
-      </c>
-      <c r="C5">
-        <v>1041</v>
-      </c>
-      <c r="D5">
-        <v>1158</v>
-      </c>
-      <c r="E5">
-        <v>5619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1034</v>
-      </c>
-      <c r="C6">
-        <v>1020</v>
-      </c>
-      <c r="D6">
-        <v>1127</v>
-      </c>
-      <c r="E6">
-        <v>4869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1054</v>
-      </c>
-      <c r="C7">
-        <v>1006</v>
-      </c>
-      <c r="D7">
-        <v>1138</v>
-      </c>
-      <c r="E7">
-        <v>4802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1650</v>
-      </c>
-      <c r="C8">
-        <v>1027</v>
-      </c>
-      <c r="D8">
-        <v>2123</v>
-      </c>
-      <c r="E8">
-        <v>41107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>29871</v>
-      </c>
-      <c r="C9">
-        <v>28128</v>
-      </c>
-      <c r="D9">
-        <v>15061</v>
-      </c>
-      <c r="E9">
-        <v>74328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>25824</v>
-      </c>
-      <c r="C10">
-        <v>11645</v>
-      </c>
-      <c r="D10">
-        <v>15195</v>
-      </c>
-      <c r="E10">
-        <v>127092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>16642</v>
-      </c>
-      <c r="C11">
-        <v>11392</v>
-      </c>
-      <c r="D11">
-        <v>43488</v>
-      </c>
-      <c r="E11">
-        <v>71073</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="4" width="6.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1">
-        <v>256</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <f>AVERAGE(B4:INDEX(B4:B26, MATCH(9.99999999999999E+307,B4:B26)))</f>
         <v>8392.375</v>
       </c>
       <c r="C2" s="6">
@@ -8384,8 +8631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8596,7 +8843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
